--- a/spec/ConvSpec-600-662-v1.7.xlsx
+++ b/spec/ConvSpec-600-662-v1.7.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="647" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="769" uniqueCount="217">
   <si>
     <t>648 - SUBJECT ADDED ENTRY--CHRONOLOGICAL TERM (R)</t>
   </si>
@@ -534,27 +534,6 @@
     <t>See subfield $0 spec</t>
   </si>
   <si>
-    <t>If field 600 has $t: W - bf:subject - bf:Work</t>
-  </si>
-  <si>
-    <t>If field 600 does not have $t: W - bf:subject - bf:Topic</t>
-  </si>
-  <si>
-    <t>If field 610 does not have $t: W - bf:subject - bf:Topic</t>
-  </si>
-  <si>
-    <t>If field 610 has $t: W - bf:subject - bf:Work</t>
-  </si>
-  <si>
-    <t>If field 611 does not have $t: W - bf:subject - bf:Topic</t>
-  </si>
-  <si>
-    <t>If field 611 has $t: W - bf:subject - bf:Work</t>
-  </si>
-  <si>
-    <t>W - bf:subject - bf:Work</t>
-  </si>
-  <si>
     <t xml:space="preserve">   Indicators </t>
   </si>
   <si>
@@ -585,21 +564,12 @@
     <t>## - partName - literal</t>
   </si>
   <si>
-    <t>## - translationOf</t>
-  </si>
-  <si>
     <t>## - musicKey - literal</t>
   </si>
   <si>
     <t>## - version - literal</t>
   </si>
   <si>
-    <t>## - bflc:arrangementOf - literal</t>
-  </si>
-  <si>
-    <t>## - title - Title - mainTitle - literal (concatenate all subfields EXCEPT $e, $h, $0-8 to create rdfs:label)</t>
-  </si>
-  <si>
     <t>See subfield $5 spec</t>
   </si>
   <si>
@@ -633,19 +603,76 @@
     <t>## - bf:Organization, concatenate $a, $b, $c, $d for rdfs:label ; see Processes 0 and 1-names</t>
   </si>
   <si>
-    <t>## - title - Title - mainTitle (concatenate all subfields that follow $t to create rdfs:label) ; see also Process 0.3 and Process 2</t>
-  </si>
-  <si>
-    <t>## - bf:title - bf:Title - bf:maintitle (concatenate all subfields that follow $t to create ; see also Process 0.3 and Process 2</t>
-  </si>
-  <si>
     <t>see Process 0.3 and Process 2</t>
   </si>
   <si>
-    <t>Fields 600-662 - Subjects - v1.7, 01/04/2021</t>
-  </si>
-  <si>
-    <t>## - musicMedium - MusicMedium - rdfs:label</t>
+    <t>## - title - Title - mainTitle - combine all title subfields (concatenated) EXCEPT $h, $0-8</t>
+  </si>
+  <si>
+    <t>see $t</t>
+  </si>
+  <si>
+    <t>## - language - Language</t>
+  </si>
+  <si>
+    <t>## - musicMedium - MusicMedium</t>
+  </si>
+  <si>
+    <t>## - rdf:type - bf:Arrangement</t>
+  </si>
+  <si>
+    <t>## - legalDate - literal</t>
+  </si>
+  <si>
+    <t>## - originDate - literal</t>
+  </si>
+  <si>
+    <t>see $a</t>
+  </si>
+  <si>
+    <t>## - title - Title - mainTitle - combine all subfields (concatenated) EXCEPT $e, $h, $v, $x, $y, $z, $0-8</t>
+  </si>
+  <si>
+    <t>If 630 field has $v, $x, $y or $z, W - bf:subject - bf:Topic</t>
+  </si>
+  <si>
+    <t>## - bf:Work - title - Title - mainTitle - combine all subfields (concatenated) EXCEPT $e, $h, $v, $x, $y, $z, $0-8</t>
+  </si>
+  <si>
+    <t>Conversion 3</t>
+  </si>
+  <si>
+    <t>If field 600 has $t and not $v, $x, $y, or $z: W - bf:subject - bf:Hub</t>
+  </si>
+  <si>
+    <t>If field 600 has $v, $x, $y, or $z: W - bf:subject - bf:Topic</t>
+  </si>
+  <si>
+    <t>If field 600 does not have $t, $v, $x, $y or $z: W - bf:subject - bf:Agent</t>
+  </si>
+  <si>
+    <t>If 630 field does not have $v, $x, $y, or $z, W - bf:subject - bf:Hub</t>
+  </si>
+  <si>
+    <t>If field 610 has $t and not $v, $x, $y, or $z: W - bf:subject - bf:Hub</t>
+  </si>
+  <si>
+    <t>If field 611 has $t and not $v, $x, $y, or $z: W - bf:subject - bf:Hub</t>
+  </si>
+  <si>
+    <t>If field 611 does not have $t, $v, $x, $y or $z: W - bf:subject - bf:Agent</t>
+  </si>
+  <si>
+    <t>If field 610 does not have $t, $v, $x, $y or $z: W - bf:subject - bf:Agent</t>
+  </si>
+  <si>
+    <t>If field 610 has $v, $x, $y or $z: W - bf:subject - bf:Topic</t>
+  </si>
+  <si>
+    <t>If field 611 has $v, $x, $y or $z: W - bf:subject - bf:Topic</t>
+  </si>
+  <si>
+    <t>Fields 600-662 - Subjects - v1.7, 10/21/2021</t>
   </si>
 </sst>
 </file>
@@ -724,7 +751,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -748,6 +775,9 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1054,2857 +1084,3254 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E338"/>
+  <dimension ref="A1:F338"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="53.7265625" style="1" customWidth="1"/>
-    <col min="2" max="3" width="46.453125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="17.1796875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="26.54296875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="9.1796875" style="1"/>
-    <col min="7" max="7" width="29" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.1796875" style="1"/>
+    <col min="2" max="2" width="53.7265625" style="6" customWidth="1"/>
+    <col min="3" max="4" width="46.453125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="17.1796875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="26.54296875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.1796875" style="1"/>
+    <col min="8" max="8" width="29" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="B1" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="D2" s="6"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E2" s="6"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="B3" s="7"/>
       <c r="C3" s="7"/>
-    </row>
-    <row r="4" spans="1:4" ht="31" x14ac:dyDescent="0.35">
-      <c r="B4" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D3" s="7"/>
+    </row>
+    <row r="4" spans="1:5" ht="31" x14ac:dyDescent="0.35">
+      <c r="B4" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="8"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B5" s="8"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="8"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="31" x14ac:dyDescent="0.35">
+      <c r="B6" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="31" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="7" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D7" s="8" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-    </row>
-    <row r="9" spans="1:4" ht="31" x14ac:dyDescent="0.35">
+      <c r="B8" s="8"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="8"/>
+    </row>
+    <row r="9" spans="1:5" ht="31" x14ac:dyDescent="0.35">
       <c r="A9" s="6" t="s">
         <v>111</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>200</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+        <v>191</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B10" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B11" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B12" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D13" s="8" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B14" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B15" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="B16" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B16" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="B17" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B17" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="B18" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B18" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="B19" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B19" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="B20" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B20" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="B21" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B21" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="B22" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B22" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="B23" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B23" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="B24" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B24" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="B25" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B25" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="B26" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="B26" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A27" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="B27" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B27" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" s="6" t="s">
         <v>126</v>
       </c>
       <c r="B28" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="C28" s="4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C28" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="B29" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D29" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="C29" s="4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="B30" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D30" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="C30" s="4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="B31" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D31" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="C31" s="4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="B32" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D32" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="C32" s="4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="B33" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="D33" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="C33" s="4" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="B34" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B34" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B35" s="4" t="s">
+      <c r="B35" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="C35" s="4" t="s">
+      <c r="C35" s="7" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D35" s="8" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B36" s="4" t="s">
+      <c r="B36" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="C36" s="4" t="s">
+      <c r="C36" s="7" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D36" s="8" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="B37" s="4" t="s">
+      <c r="B37" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="C37" s="4" t="s">
+      <c r="C37" s="7" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D37" s="8" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B38" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B38" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39" s="4"/>
-      <c r="B39" s="4"/>
-      <c r="C39" s="4"/>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B39" s="7"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="8"/>
+      <c r="F39" s="4"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40" s="6"/>
-      <c r="B40" s="4"/>
-      <c r="C40" s="4"/>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B40" s="7"/>
+      <c r="C40" s="8"/>
+      <c r="D40" s="8"/>
+      <c r="F40" s="4"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="B41" s="8"/>
+      <c r="B41" s="7"/>
       <c r="C41" s="8"/>
-    </row>
-    <row r="42" spans="1:3" ht="31" x14ac:dyDescent="0.35">
+      <c r="D41" s="8"/>
+      <c r="F41" s="8"/>
+    </row>
+    <row r="42" spans="1:6" ht="31" x14ac:dyDescent="0.35">
       <c r="A42" s="6"/>
-      <c r="B42" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="C42" s="8" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B42" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="D42" s="7" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="B43" s="4"/>
-      <c r="C43" s="4"/>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B43" s="8"/>
+      <c r="C43" s="7"/>
+      <c r="D43" s="8"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="B44" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="31" x14ac:dyDescent="0.35">
+      <c r="B44" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D44" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="31" x14ac:dyDescent="0.35">
       <c r="A45" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="B45" s="4" t="s">
+      <c r="B45" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="C45" s="4" t="s">
+      <c r="C45" s="7" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D45" s="8" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A46" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="B46" s="4"/>
-      <c r="C46" s="4"/>
-    </row>
-    <row r="47" spans="1:3" ht="31" x14ac:dyDescent="0.35">
+      <c r="B46" s="8"/>
+      <c r="C46" s="7"/>
+      <c r="D46" s="8"/>
+    </row>
+    <row r="47" spans="1:6" ht="31" x14ac:dyDescent="0.35">
       <c r="A47" s="6" t="s">
         <v>133</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>202</v>
-      </c>
-      <c r="C47" s="8" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+        <v>191</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="D47" s="8" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A48" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="B48" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B48" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="D48" s="8" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="B49" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B49" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="D49" s="8" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="B50" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B50" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="D50" s="8" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B51" s="4" t="s">
+      <c r="B51" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="C51" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="C51" s="4" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D51" s="8" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="B52" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C52" s="4" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B52" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="C52" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D52" s="7" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B53" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B53" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="C53" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D53" s="7" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="B54" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C54" s="4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B54" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C54" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D54" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="B55" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C55" s="4" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B55" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="C55" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D55" s="7" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="B56" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C56" s="4" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B56" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="C56" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D56" s="7" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A57" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="B57" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C57" s="4" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B57" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="C57" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D57" s="7" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A58" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="B58" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C58" s="4" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B58" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="C58" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D58" s="7" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="B59" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C59" s="4" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B59" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="C59" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D59" s="7" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A60" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="B60" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C60" s="4" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B60" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="C60" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D60" s="7" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A61" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="B61" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C61" s="4" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B61" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="C61" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D61" s="7" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="B62" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C62" s="4" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="B62" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="C62" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D62" s="7" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A63" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="B63" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="C63" s="4" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B63" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="C63" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D63" s="7" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A64" s="6" t="s">
         <v>126</v>
       </c>
       <c r="B64" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="C64" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C64" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D64" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A65" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B65" s="4" t="s">
+      <c r="B65" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C65" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D65" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="C65" s="4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A66" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B66" s="4" t="s">
+      <c r="B66" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C66" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D66" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="C66" s="4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A67" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B67" s="4" t="s">
+      <c r="B67" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C67" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D67" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="C67" s="4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A68" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B68" s="4" t="s">
+      <c r="B68" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C68" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D68" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="C68" s="4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A69" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="B69" s="4" t="s">
+      <c r="B69" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="C69" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="C69" s="4" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D69" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A70" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="B70" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C70" s="4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B70" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C70" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D70" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A71" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B71" s="4" t="s">
+      <c r="B71" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="C71" s="4" t="s">
+      <c r="C71" s="7" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D71" s="8" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A72" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B72" s="4" t="s">
+      <c r="B72" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="C72" s="4" t="s">
+      <c r="C72" s="7" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D72" s="8" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A73" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="B73" s="4" t="s">
+      <c r="B73" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="C73" s="4" t="s">
+      <c r="C73" s="7" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D73" s="8" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A74" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B74" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C74" s="4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B74" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C74" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D74" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A75" s="6"/>
-      <c r="B75" s="4"/>
-      <c r="C75" s="4"/>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B75" s="7"/>
+      <c r="C75" s="8"/>
+      <c r="D75" s="8"/>
+      <c r="F75" s="4"/>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A76" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="B76" s="8"/>
+      <c r="B76" s="7"/>
       <c r="C76" s="8"/>
-    </row>
-    <row r="77" spans="1:3" ht="31" x14ac:dyDescent="0.35">
+      <c r="D76" s="8"/>
+      <c r="F76" s="8"/>
+    </row>
+    <row r="77" spans="1:6" ht="31" x14ac:dyDescent="0.35">
       <c r="A77" s="6"/>
-      <c r="B77" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="C77" s="8" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B77" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="C77" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="D77" s="7" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A78" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="B78" s="4"/>
-      <c r="C78" s="4"/>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B78" s="8"/>
+      <c r="C78" s="7"/>
+      <c r="D78" s="8"/>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A79" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="B79" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C79" s="4"/>
-    </row>
-    <row r="80" spans="1:3" ht="31" x14ac:dyDescent="0.35">
+      <c r="B79" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C79" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D79" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" ht="31" x14ac:dyDescent="0.35">
       <c r="A80" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="B80" s="4" t="s">
+      <c r="B80" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="C80" s="4" t="s">
+      <c r="C80" s="7" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D80" s="8" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A81" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="B81" s="4"/>
-      <c r="C81" s="4"/>
-    </row>
-    <row r="82" spans="1:3" ht="31" x14ac:dyDescent="0.35">
+      <c r="B81" s="8"/>
+      <c r="C81" s="7"/>
+      <c r="D81" s="8"/>
+    </row>
+    <row r="82" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A82" s="6" t="s">
         <v>139</v>
       </c>
       <c r="B82" s="8" t="s">
-        <v>199</v>
-      </c>
-      <c r="C82" s="8" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
+        <v>191</v>
+      </c>
+      <c r="C82" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="D82" s="8" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A83" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="B83" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="C83" s="4" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B83" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="C83" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="D83" s="8" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A84" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="B84" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="C84" s="4" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B84" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="C84" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="D84" s="8" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A85" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="B85" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="C85" s="4" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B85" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="C85" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="D85" s="8" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A86" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="B86" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C86" s="4" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B86" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="C86" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D86" s="7" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A87" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B87" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C87" s="4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B87" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="C87" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D87" s="7" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A88" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="B88" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C88" s="4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B88" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C88" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D88" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A89" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="B89" s="4" t="s">
+      <c r="B89" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="C89" s="4" t="s">
+      <c r="C89" s="7" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D89" s="8" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A90" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="B90" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C90" s="4" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B90" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="C90" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D90" s="7" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A91" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="B91" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C91" s="4" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B91" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="C91" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D91" s="7" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A92" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="B92" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="C92" s="4" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B92" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="C92" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="D92" s="7" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A93" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="B93" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C93" s="4" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" ht="31" x14ac:dyDescent="0.35">
+      <c r="B93" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="C93" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D93" s="7" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A94" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="B94" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="C94" s="4" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B94" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="C94" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="D94" s="8" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A95" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="B95" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C95" s="4" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="B95" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="C95" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D95" s="7" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A96" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="B96" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C96" s="8" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B96" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="C96" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D96" s="7" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A97" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="B97" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C97" s="4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B97" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C97" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D97" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A98" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B98" s="4" t="s">
+      <c r="B98" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C98" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D98" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="C98" s="4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.35">
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A99" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B99" s="4" t="s">
+      <c r="B99" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C99" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D99" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="C99" s="4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A100" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B100" s="4" t="s">
+      <c r="B100" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C100" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D100" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="C100" s="4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.35">
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A101" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B101" s="4" t="s">
+      <c r="B101" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C101" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D101" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="C101" s="4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.35">
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A102" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="B102" s="4" t="s">
+      <c r="B102" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="C102" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="C102" s="4" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D102" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A103" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="B103" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C103" s="4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B103" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C103" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D103" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A104" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B104" s="4" t="s">
+      <c r="B104" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="C104" s="4" t="s">
+      <c r="C104" s="7" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D104" s="8" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A105" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B105" s="4" t="s">
+      <c r="B105" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="C105" s="4" t="s">
+      <c r="C105" s="7" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D105" s="8" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A106" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="B106" s="4" t="s">
+      <c r="B106" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="C106" s="4" t="s">
+      <c r="C106" s="7" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D106" s="8" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A107" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B107" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C107" s="4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B107" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C107" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D107" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A108" s="4"/>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B108" s="8"/>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A109" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="B109" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="C109" s="3"/>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B109" s="8"/>
+    </row>
+    <row r="110" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A110" s="4"/>
-      <c r="B110" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="C110" s="3"/>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B110" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="C110" s="7" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A111" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="B111" s="4"/>
-      <c r="C111" s="3"/>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.35">
+        <v>170</v>
+      </c>
+      <c r="B111" s="8"/>
+      <c r="C111" s="8"/>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A112" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="B112" s="4"/>
-      <c r="C112" s="3"/>
+        <v>171</v>
+      </c>
+      <c r="B112" s="8"/>
+      <c r="C112" s="8"/>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A113" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="B113" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="C113" s="3"/>
+        <v>172</v>
+      </c>
+      <c r="B113" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="C113" s="8" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="114" spans="1:3" ht="31" x14ac:dyDescent="0.35">
       <c r="A114" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="B114" s="4" t="s">
+      <c r="B114" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="C114" s="3"/>
+      <c r="C114" s="8" t="s">
+        <v>154</v>
+      </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A115" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="B115" s="4"/>
-      <c r="C115" s="3"/>
-    </row>
-    <row r="116" spans="1:3" ht="31" x14ac:dyDescent="0.35">
+        <v>173</v>
+      </c>
+      <c r="B115" s="8"/>
+      <c r="C115" s="8"/>
+    </row>
+    <row r="116" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A116" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="B116" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="C116" s="3"/>
+        <v>174</v>
+      </c>
+      <c r="B116" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="C116" s="7" t="s">
+        <v>204</v>
+      </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A117" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="B117" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C117" s="3"/>
+        <v>175</v>
+      </c>
+      <c r="B117" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="C117" s="7" t="s">
+        <v>201</v>
+      </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A118" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B118" s="4" t="s">
+      <c r="B118" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C118" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="C118" s="3"/>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A119" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="B119" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C119" s="3"/>
+      <c r="B119" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="C119" s="7" t="s">
+        <v>201</v>
+      </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A120" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B120" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C120" s="3"/>
+      <c r="B120" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="C120" s="7" t="s">
+        <v>201</v>
+      </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A121" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="B121" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C121" s="3"/>
+      <c r="B121" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C121" s="7" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A122" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="B122" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C122" s="3"/>
+      <c r="B122" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="C122" s="7" t="s">
+        <v>201</v>
+      </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A123" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="B123" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="C123" s="3"/>
+      <c r="B123" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="C123" s="7" t="s">
+        <v>201</v>
+      </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A124" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="B124" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="C124" s="3"/>
+      <c r="B124" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="C124" s="7" t="s">
+        <v>201</v>
+      </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A125" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="B125" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="C125" s="3"/>
+      <c r="B125" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="C125" s="7" t="s">
+        <v>201</v>
+      </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A126" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="B126" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="C126" s="3"/>
+      <c r="B126" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="C126" s="7" t="s">
+        <v>201</v>
+      </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A127" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="B127" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="C127" s="3"/>
+      <c r="B127" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="C127" s="7" t="s">
+        <v>201</v>
+      </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A128" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="B128" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="C128" s="3"/>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B128" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="C128" s="7" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A129" s="8" t="s">
-        <v>183</v>
-      </c>
-      <c r="B129" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="C129" s="3"/>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.35">
+        <v>176</v>
+      </c>
+      <c r="B129" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="C129" s="7" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A130" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B130" s="4" t="s">
+      <c r="B130" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C130" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="C130" s="3"/>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A131" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B131" s="4" t="s">
+      <c r="B131" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C131" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="C131" s="3"/>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A132" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B132" s="4" t="s">
+      <c r="B132" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C132" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="C132" s="3"/>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A133" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B133" s="4" t="s">
+      <c r="B133" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C133" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="C133" s="3"/>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A134" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="B134" s="4" t="s">
+      <c r="B134" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="C134" s="3"/>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C134" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A135" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="B135" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C135" s="3"/>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B135" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C135" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A136" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B136" s="4" t="s">
+      <c r="B136" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="C136" s="3"/>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C136" s="8" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A137" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B137" s="4" t="s">
+      <c r="B137" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="C137" s="3"/>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C137" s="8" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A138" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="B138" s="4" t="s">
+      <c r="B138" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="C138" s="3"/>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C138" s="8" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A139" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B139" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C139" s="3"/>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B139" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C139" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A140" s="6"/>
-      <c r="B140" s="4"/>
-      <c r="C140" s="3"/>
-    </row>
-    <row r="141" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C140" s="8"/>
+      <c r="D140" s="7"/>
+    </row>
+    <row r="141" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A141" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="B141" s="4" t="s">
+      <c r="B141" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="C141" s="4"/>
+      <c r="C141" s="8" t="s">
+        <v>74</v>
+      </c>
       <c r="D141" s="8"/>
-    </row>
-    <row r="142" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="E141" s="8"/>
+    </row>
+    <row r="142" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A142" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B142" s="4"/>
-      <c r="C142" s="4"/>
-    </row>
-    <row r="143" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B142" s="8"/>
+      <c r="C142" s="8"/>
+      <c r="D142" s="8"/>
+    </row>
+    <row r="143" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A143" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B143" s="4"/>
-      <c r="C143" s="4"/>
-    </row>
-    <row r="144" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B143" s="8"/>
+      <c r="C143" s="8"/>
+      <c r="D143" s="8"/>
+    </row>
+    <row r="144" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A144" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="B144" s="4"/>
-      <c r="C144" s="4"/>
-    </row>
-    <row r="145" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B144" s="8"/>
+      <c r="C144" s="8"/>
+      <c r="D144" s="8"/>
+    </row>
+    <row r="145" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A145" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="B145" s="4"/>
-      <c r="C145" s="4"/>
-    </row>
-    <row r="146" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B145" s="8"/>
+      <c r="C145" s="8"/>
+      <c r="D145" s="8"/>
+    </row>
+    <row r="146" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A146" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="B146" s="4"/>
-      <c r="C146" s="4"/>
-    </row>
-    <row r="147" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B146" s="8"/>
+      <c r="C146" s="8"/>
+      <c r="D146" s="8"/>
+    </row>
+    <row r="147" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A147" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="B147" s="4"/>
-      <c r="C147" s="4"/>
-    </row>
-    <row r="148" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B147" s="8"/>
+      <c r="C147" s="8"/>
+      <c r="D147" s="8"/>
+    </row>
+    <row r="148" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A148" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="B148" s="4"/>
-      <c r="C148" s="4"/>
-    </row>
-    <row r="149" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B148" s="8"/>
+      <c r="C148" s="8"/>
+      <c r="D148" s="8"/>
+    </row>
+    <row r="149" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A149" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="B149" s="4"/>
-      <c r="C149" s="4"/>
-    </row>
-    <row r="150" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B149" s="8"/>
+      <c r="C149" s="8"/>
+      <c r="D149" s="8"/>
+    </row>
+    <row r="150" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A150" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="B150" s="4"/>
-      <c r="C150" s="4"/>
-    </row>
-    <row r="151" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B150" s="8"/>
+      <c r="C150" s="8"/>
+      <c r="D150" s="8"/>
+    </row>
+    <row r="151" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A151" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="B151" s="4"/>
-      <c r="C151" s="4"/>
-    </row>
-    <row r="152" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B151" s="8"/>
+      <c r="C151" s="8"/>
+      <c r="D151" s="8"/>
+    </row>
+    <row r="152" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A152" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="B152" s="4"/>
-      <c r="C152" s="4"/>
-    </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B152" s="8"/>
+      <c r="C152" s="8"/>
+      <c r="D152" s="8"/>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A153" s="4" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B153" s="8"/>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A154" s="4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B154" s="8"/>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A155" s="4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B155" s="8"/>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A156" s="4" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B156" s="8"/>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A158" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B158" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="C158" s="4"/>
-      <c r="E158" s="6"/>
-    </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B158" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="D158" s="8"/>
+      <c r="F158" s="6"/>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A159" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B159" s="4" t="s">
+      <c r="B159" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="C159" s="4"/>
-    </row>
-    <row r="160" spans="1:5" ht="31" x14ac:dyDescent="0.35">
+      <c r="D159" s="8"/>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A160" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B160" s="4" t="s">
+      <c r="B160" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="C160" s="3"/>
-    </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D160" s="7"/>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A161" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B161" s="4"/>
-      <c r="C161" s="4"/>
-    </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B161" s="8"/>
+      <c r="D161" s="8"/>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A162" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B162" s="4" t="s">
+      <c r="B162" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="C162" s="4"/>
-    </row>
-    <row r="163" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="D162" s="8"/>
+    </row>
+    <row r="163" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A163" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B163" s="4" t="s">
+      <c r="B163" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="C163" s="4"/>
-    </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C163" s="7"/>
+      <c r="D163" s="8"/>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A164" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B164" s="4" t="s">
+      <c r="B164" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="C164" s="4"/>
-    </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D164" s="8"/>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A165" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B165" s="4" t="s">
+      <c r="B165" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="C165" s="4"/>
-    </row>
-    <row r="166" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="D165" s="8"/>
+    </row>
+    <row r="166" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A166" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B166" s="4" t="s">
+      <c r="B166" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="C166" s="4"/>
-    </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C166" s="7"/>
+      <c r="D166" s="8"/>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A167" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B167" s="1" t="s">
+      <c r="B167" s="6" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A168" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="B168" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C168" s="3"/>
-    </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B168" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="D168" s="7"/>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A169" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B169" s="4" t="s">
+      <c r="B169" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="C169" s="3"/>
-    </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D169" s="7"/>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A170" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B170" s="4" t="s">
+      <c r="B170" s="8" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A171" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B171" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C171" s="3"/>
-    </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B171" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="D171" s="7"/>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A173" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B173" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="C173" s="4"/>
-    </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B173" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="D173" s="8"/>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A174" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B174" s="4" t="s">
+      <c r="B174" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="C174" s="4"/>
-    </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D174" s="8"/>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A175" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B175" s="1" t="s">
+      <c r="B175" s="6" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="176" spans="1:3" ht="31" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A176" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B176" s="4" t="s">
+      <c r="B176" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="C176" s="3"/>
-    </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D176" s="7"/>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A177" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B177" s="4"/>
-    </row>
-    <row r="178" spans="1:5" ht="31" x14ac:dyDescent="0.35">
+      <c r="B177" s="8"/>
+    </row>
+    <row r="178" spans="1:6" ht="31" x14ac:dyDescent="0.35">
       <c r="A178" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B178" s="4" t="s">
+      <c r="B178" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="C178" s="4"/>
-    </row>
-    <row r="179" spans="1:5" ht="31" x14ac:dyDescent="0.35">
+      <c r="D178" s="8"/>
+    </row>
+    <row r="179" spans="1:6" ht="31" x14ac:dyDescent="0.35">
       <c r="A179" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B179" s="4" t="s">
+      <c r="B179" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="C179" s="4"/>
-    </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D179" s="8"/>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A180" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B180" s="4" t="s">
+      <c r="B180" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="C180" s="4"/>
-    </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D180" s="8"/>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A181" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B181" s="4" t="s">
+      <c r="B181" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="C181" s="4"/>
-    </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D181" s="8"/>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A182" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B182" s="4" t="s">
+      <c r="B182" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="C182" s="3"/>
-    </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D182" s="7"/>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A183" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B183" s="4" t="s">
+      <c r="B183" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="C183" s="4"/>
-      <c r="D183" s="5"/>
-    </row>
-    <row r="184" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="D183" s="8"/>
+      <c r="E183" s="5"/>
+    </row>
+    <row r="184" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A184" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B184" s="4" t="s">
+      <c r="B184" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="C184" s="4"/>
-    </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C184" s="7"/>
+      <c r="D184" s="8"/>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A185" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B185" s="4" t="s">
+      <c r="B185" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="C185" s="4"/>
-      <c r="D185" s="5"/>
-    </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D185" s="8"/>
+      <c r="E185" s="5"/>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A186" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B186" s="4" t="s">
+      <c r="B186" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="C186" s="4"/>
-    </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D186" s="8"/>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A187" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B187" s="4" t="s">
+      <c r="B187" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="C187" s="4"/>
-      <c r="E187" s="6"/>
-    </row>
-    <row r="188" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="D187" s="8"/>
+      <c r="F187" s="6"/>
+    </row>
+    <row r="188" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A188" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B188" s="1" t="s">
+      <c r="B188" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="C188" s="1"/>
-    </row>
-    <row r="189" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C188" s="7"/>
+      <c r="D188" s="6"/>
+    </row>
+    <row r="189" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A189" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="B189" s="4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B189" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C189" s="7"/>
+      <c r="D189" s="7"/>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A190" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B190" s="4" t="s">
+      <c r="B190" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="C190" s="3"/>
-    </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D190" s="7"/>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A191" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B191" s="4" t="s">
+      <c r="B191" s="8" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A192" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B192" s="4" t="s">
+      <c r="B192" s="8" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A193" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B193" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C193" s="3"/>
-    </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B193" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="D193" s="7"/>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A194" s="3"/>
-      <c r="B194" s="3"/>
-      <c r="C194" s="3"/>
-    </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B194" s="7"/>
+      <c r="D194" s="7"/>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A195" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B195" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="D195" s="5"/>
-    </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B195" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="E195" s="5"/>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A196" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B196" s="1" t="s">
+      <c r="B196" s="6" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="197" spans="1:4" ht="31" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A197" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B197" s="4" t="s">
+      <c r="B197" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="C197" s="3"/>
-    </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D197" s="7"/>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A198" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B198" s="4"/>
-      <c r="D198" s="5"/>
-    </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B198" s="8"/>
+      <c r="E198" s="5"/>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A199" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B199" s="4" t="s">
+      <c r="B199" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="C199" s="4"/>
-    </row>
-    <row r="200" spans="1:4" ht="31" x14ac:dyDescent="0.35">
+      <c r="D199" s="8"/>
+    </row>
+    <row r="200" spans="1:5" ht="31" x14ac:dyDescent="0.35">
       <c r="A200" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B200" s="4" t="s">
+      <c r="B200" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="C200" s="4"/>
-    </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D200" s="8"/>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A201" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B201" s="4" t="s">
+      <c r="B201" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="C201" s="3"/>
-      <c r="D201" s="5"/>
-    </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D201" s="7"/>
+      <c r="E201" s="5"/>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A202" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B202" s="4" t="s">
+      <c r="B202" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="C202" s="4"/>
-      <c r="D202" s="5"/>
-    </row>
-    <row r="203" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="D202" s="8"/>
+      <c r="E202" s="5"/>
+    </row>
+    <row r="203" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A203" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B203" s="4" t="s">
+      <c r="B203" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="C203" s="4"/>
-    </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C203" s="7"/>
+      <c r="D203" s="8"/>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A204" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B204" s="4" t="s">
+      <c r="B204" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="C204" s="4"/>
-      <c r="D204" s="5"/>
-    </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D204" s="8"/>
+      <c r="E204" s="5"/>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A205" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B205" s="4" t="s">
+      <c r="B205" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="C205" s="4"/>
-    </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D205" s="8"/>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A206" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B206" s="4" t="s">
+      <c r="B206" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="C206" s="4"/>
-    </row>
-    <row r="207" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="D206" s="8"/>
+    </row>
+    <row r="207" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A207" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B207" s="4" t="s">
+      <c r="B207" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="C207" s="4"/>
-    </row>
-    <row r="208" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C207" s="7"/>
+      <c r="D207" s="8"/>
+    </row>
+    <row r="208" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A208" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="B208" s="4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B208" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C208" s="7"/>
+      <c r="D208" s="7"/>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A209" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B209" s="4" t="s">
+      <c r="B209" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="C209" s="3"/>
-    </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D209" s="7"/>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A210" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B210" s="4" t="s">
+      <c r="B210" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="C210" s="4"/>
-    </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D210" s="8"/>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A211" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B211" s="4" t="s">
+      <c r="B211" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="C211" s="4"/>
-    </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D211" s="8"/>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A212" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B212" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C212" s="3"/>
-    </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B212" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="D212" s="7"/>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A213" s="3"/>
-      <c r="B213" s="3"/>
-      <c r="C213" s="3"/>
-    </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B213" s="7"/>
+      <c r="D213" s="7"/>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A214" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B214" s="4" t="s">
+      <c r="B214" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="C214" s="3"/>
-    </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D214" s="7"/>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A215" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A216" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B216" s="1" t="s">
+      <c r="B216" s="6" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A217" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B217" s="6"/>
-      <c r="C217" s="6"/>
-    </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.35">
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A218" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B218" s="4" t="s">
+      <c r="B218" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="C218" s="4"/>
-    </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D218" s="8"/>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A219" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B219" s="4" t="s">
+      <c r="B219" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="C219" s="4"/>
-    </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D219" s="8"/>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A220" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B220" s="4" t="s">
+      <c r="B220" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="C220" s="4"/>
-    </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D220" s="8"/>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A221" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B221" s="4" t="s">
+      <c r="B221" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="C221" s="4"/>
-    </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D221" s="8"/>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A222" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B222" s="4" t="s">
+      <c r="B222" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="C222" s="4"/>
-    </row>
-    <row r="223" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="D222" s="8"/>
+    </row>
+    <row r="223" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A223" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B223" s="4" t="s">
+      <c r="B223" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="C223" s="4"/>
-    </row>
-    <row r="224" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C223" s="7"/>
+      <c r="D223" s="8"/>
+    </row>
+    <row r="224" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A224" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B224" s="4" t="s">
+      <c r="B224" s="8" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C224" s="7"/>
+      <c r="D224" s="7"/>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A225" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B225" s="4" t="s">
+      <c r="B225" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="C225" s="4"/>
-    </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D225" s="8"/>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A226" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="227" spans="1:3" ht="31" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A227" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B227" s="1" t="s">
+      <c r="B227" s="6" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A228" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B228" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C228" s="3"/>
-    </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B228" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="D228" s="7"/>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A229" s="3"/>
-      <c r="B229" s="3"/>
-      <c r="C229" s="3"/>
-    </row>
-    <row r="230" spans="1:3" ht="31" x14ac:dyDescent="0.35">
+      <c r="B229" s="7"/>
+      <c r="D229" s="7"/>
+    </row>
+    <row r="230" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A230" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B230" s="1" t="s">
+      <c r="B230" s="6" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A231" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A232" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A233" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A234" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A235" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A236" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="237" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A237" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B237" s="1"/>
-      <c r="C237" s="1"/>
-    </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B237" s="6"/>
+      <c r="C237" s="7"/>
+      <c r="D237" s="6"/>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A238" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A239" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A240" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="241" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A241" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B241" s="1"/>
-      <c r="C241" s="1"/>
-    </row>
-    <row r="242" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B241" s="6"/>
+      <c r="C241" s="7"/>
+      <c r="D241" s="6"/>
+    </row>
+    <row r="242" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A242" s="1" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B242" s="7"/>
+      <c r="C242" s="7"/>
+      <c r="D242" s="7"/>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A243" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A244" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A245" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A246" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B246" s="3"/>
-      <c r="C246" s="3"/>
-    </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B246" s="7"/>
+      <c r="D246" s="7"/>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A247" s="3"/>
-      <c r="B247" s="3"/>
-      <c r="C247" s="3"/>
-    </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B247" s="7"/>
+      <c r="D247" s="7"/>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A248" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B248" s="4" t="s">
+      <c r="B248" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="C248" s="4"/>
-    </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D248" s="8"/>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A249" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B249" s="4" t="s">
+      <c r="B249" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="C249" s="3"/>
-    </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D249" s="7"/>
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A250" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B250" s="4" t="s">
+      <c r="B250" s="8" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="251" spans="1:3" ht="31" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A251" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B251" s="4" t="s">
+      <c r="B251" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="C251" s="3"/>
-    </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D251" s="7"/>
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A252" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B252" s="4"/>
-      <c r="C252" s="4"/>
-    </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B252" s="8"/>
+      <c r="D252" s="8"/>
+    </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A253" s="1" t="s">
         <v>45</v>
       </c>
       <c r="B253" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="C253" s="6"/>
-    </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.35">
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A254" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B254" s="4" t="s">
+      <c r="B254" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="C254" s="4"/>
-    </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D254" s="8"/>
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A255" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B255" s="4" t="s">
+      <c r="B255" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="C255" s="4"/>
-    </row>
-    <row r="256" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="D255" s="8"/>
+    </row>
+    <row r="256" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A256" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B256" s="4" t="s">
+      <c r="B256" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="C256" s="4"/>
-    </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C256" s="7"/>
+      <c r="D256" s="8"/>
+    </row>
+    <row r="257" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A257" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B257" s="4" t="s">
+      <c r="B257" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="C257" s="4"/>
-    </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D257" s="8"/>
+    </row>
+    <row r="258" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A258" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B258" s="4" t="s">
+      <c r="B258" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="C258" s="4"/>
-    </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D258" s="8"/>
+    </row>
+    <row r="259" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A259" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B259" s="4" t="s">
+      <c r="B259" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="C259" s="4"/>
-    </row>
-    <row r="260" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="D259" s="8"/>
+    </row>
+    <row r="260" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A260" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B260" s="1" t="s">
+      <c r="B260" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="C260" s="1"/>
-    </row>
-    <row r="261" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C260" s="7"/>
+      <c r="D260" s="6"/>
+    </row>
+    <row r="261" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A261" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="B261" s="4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="262" spans="1:5" ht="77.5" x14ac:dyDescent="0.35">
+      <c r="B261" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C261" s="7"/>
+      <c r="D261" s="7"/>
+    </row>
+    <row r="262" spans="1:6" ht="62" x14ac:dyDescent="0.35">
       <c r="A262" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B262" s="4" t="s">
+      <c r="B262" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="C262" s="3"/>
-    </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D262" s="7"/>
+    </row>
+    <row r="263" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A263" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B263" s="1" t="s">
+      <c r="B263" s="6" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A264" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B264" s="1" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B264" s="6" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A265" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B265" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C265" s="3"/>
-    </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B265" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="D265" s="7"/>
+    </row>
+    <row r="266" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A266" s="3"/>
-      <c r="B266" s="3"/>
-      <c r="C266" s="3"/>
-    </row>
-    <row r="267" spans="1:5" ht="31" x14ac:dyDescent="0.35">
+      <c r="B266" s="7"/>
+      <c r="D266" s="7"/>
+    </row>
+    <row r="267" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A267" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B267" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="C267" s="7"/>
-      <c r="E267" s="1" t="s">
+      <c r="B267" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="D267" s="7"/>
+      <c r="F267" s="1" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="268" spans="1:5" ht="31" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A268" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B268" s="4" t="s">
+      <c r="B268" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="C268" s="4"/>
-    </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D268" s="8"/>
+    </row>
+    <row r="269" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A269" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B269" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C269" s="4"/>
-    </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B269" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="D269" s="8"/>
+    </row>
+    <row r="270" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A270" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B270" s="4"/>
-      <c r="C270" s="4"/>
-    </row>
-    <row r="271" spans="1:5" ht="31" x14ac:dyDescent="0.35">
+      <c r="B270" s="8"/>
+      <c r="D270" s="8"/>
+    </row>
+    <row r="271" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A271" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B271" s="4" t="s">
+      <c r="B271" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="C271" s="4"/>
-    </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D271" s="8"/>
+    </row>
+    <row r="272" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A272" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B272" s="4" t="s">
+      <c r="B272" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="C272" s="4"/>
-    </row>
-    <row r="273" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="D272" s="8"/>
+    </row>
+    <row r="273" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A273" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B273" s="4" t="s">
+      <c r="B273" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="C273" s="4"/>
-    </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C273" s="7"/>
+      <c r="D273" s="8"/>
+    </row>
+    <row r="274" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A274" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B274" s="4" t="s">
+      <c r="B274" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="C274" s="4"/>
-    </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D274" s="8"/>
+    </row>
+    <row r="275" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A275" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B275" s="4" t="s">
+      <c r="B275" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="C275" s="4"/>
-    </row>
-    <row r="276" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="D275" s="8"/>
+    </row>
+    <row r="276" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A276" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B276" s="4" t="s">
+      <c r="B276" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="C276" s="4"/>
-    </row>
-    <row r="277" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C276" s="7"/>
+      <c r="D276" s="8"/>
+    </row>
+    <row r="277" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A277" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B277" s="4" t="s">
+      <c r="B277" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="C277" s="4"/>
-    </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C277" s="7"/>
+      <c r="D277" s="8"/>
+    </row>
+    <row r="278" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A278" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="B278" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C278" s="3"/>
-    </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B278" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="D278" s="7"/>
+    </row>
+    <row r="279" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A279" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B279" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="C279" s="4"/>
-    </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B279" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="D279" s="8"/>
+    </row>
+    <row r="280" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A280" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B280" s="1" t="s">
+      <c r="B280" s="6" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A281" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B281" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C281" s="3"/>
-    </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B281" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="D281" s="7"/>
+    </row>
+    <row r="282" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A282" s="4"/>
-      <c r="B282" s="4"/>
-      <c r="C282" s="3"/>
-    </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B282" s="8"/>
+      <c r="D282" s="7"/>
+    </row>
+    <row r="283" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A283" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B283" s="1" t="s">
+      <c r="B283" s="6" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A284" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A285" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A286" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A287" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A288" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="289" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A289" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B289" s="1"/>
-      <c r="C289" s="1"/>
-    </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B289" s="6"/>
+      <c r="C289" s="7"/>
+      <c r="D289" s="6"/>
+    </row>
+    <row r="290" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A290" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A291" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A292" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A293" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A294" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B294" s="3"/>
-      <c r="C294" s="3"/>
-    </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B294" s="7"/>
+      <c r="D294" s="7"/>
+    </row>
+    <row r="295" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A295" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A296" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A297" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A298" s="3"/>
     </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A299" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B299" s="1" t="s">
+      <c r="B299" s="6" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A300" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A301" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A302" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A303" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A304" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A305" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A306" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A307" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A308" s="3"/>
     </row>
-    <row r="309" spans="1:5" ht="31" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:6" ht="31" x14ac:dyDescent="0.35">
       <c r="A309" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B309" s="4" t="s">
+      <c r="B309" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="C309" s="4"/>
-    </row>
-    <row r="310" spans="1:5" ht="31" x14ac:dyDescent="0.35">
+      <c r="D309" s="8"/>
+    </row>
+    <row r="310" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A310" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B310" s="4" t="s">
+      <c r="B310" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="C310" s="4"/>
-      <c r="E310" s="6"/>
-    </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D310" s="8"/>
+      <c r="F310" s="6"/>
+    </row>
+    <row r="311" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A311" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="B311" s="4" t="s">
+      <c r="B311" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="C311" s="4"/>
-    </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D311" s="8"/>
+    </row>
+    <row r="312" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A312" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B312" s="4" t="s">
+      <c r="B312" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="C312" s="4"/>
-    </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D312" s="8"/>
+    </row>
+    <row r="313" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A313" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B313" s="4" t="s">
+      <c r="B313" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="C313" s="4"/>
-    </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D313" s="8"/>
+    </row>
+    <row r="314" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A314" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B314" s="4" t="s">
+      <c r="B314" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="C314" s="4"/>
-    </row>
-    <row r="315" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="D314" s="8"/>
+    </row>
+    <row r="315" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A315" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B315" s="4" t="s">
+      <c r="B315" s="8" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C315" s="7"/>
+      <c r="D315" s="7"/>
+    </row>
+    <row r="316" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A316" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B316" s="4" t="s">
+      <c r="B316" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="C316" s="4"/>
-    </row>
-    <row r="317" spans="1:5" ht="31" x14ac:dyDescent="0.35">
+      <c r="D316" s="8"/>
+    </row>
+    <row r="317" spans="1:6" ht="31" x14ac:dyDescent="0.35">
       <c r="A317" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B317" s="4" t="s">
+      <c r="B317" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="C317" s="4"/>
-      <c r="E317" s="6"/>
-    </row>
-    <row r="318" spans="1:5" s="3" customFormat="1" ht="31" x14ac:dyDescent="0.35">
+      <c r="D317" s="8"/>
+      <c r="F317" s="6"/>
+    </row>
+    <row r="318" spans="1:6" s="3" customFormat="1" ht="31" x14ac:dyDescent="0.35">
       <c r="A318" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B318" s="4" t="s">
+      <c r="B318" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="C318" s="4"/>
-    </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C318" s="7"/>
+      <c r="D318" s="8"/>
+    </row>
+    <row r="319" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A319" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B319" s="1" t="s">
+      <c r="B319" s="6" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A320" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="B320" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C320" s="3"/>
-    </row>
-    <row r="321" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="B320" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="D320" s="7"/>
+    </row>
+    <row r="321" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A321" s="4" t="s">
         <v>10</v>
       </c>
       <c r="B321" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="C321" s="7"/>
-    </row>
-    <row r="322" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D321" s="7"/>
+    </row>
+    <row r="322" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A322" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B322" s="4" t="s">
+      <c r="B322" s="8" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="323" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A323" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B323" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C323" s="3"/>
-    </row>
-    <row r="324" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B323" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="D323" s="7"/>
+    </row>
+    <row r="324" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A324" s="4"/>
-      <c r="B324" s="4"/>
-    </row>
-    <row r="325" spans="1:3" ht="31" x14ac:dyDescent="0.35">
+      <c r="B324" s="8"/>
+    </row>
+    <row r="325" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A325" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="B325" s="1" t="s">
+      <c r="B325" s="6" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="326" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A326" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="327" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A327" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="328" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A328" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="329" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A329" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="330" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A330" s="1" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="331" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A331" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="332" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A332" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="333" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A333" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="334" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A334" s="1" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="335" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A335" s="1" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="336" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A336" s="1" t="s">
         <v>11</v>
       </c>
